--- a/completo.xlsx
+++ b/completo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Chanona\Desktop\8vo cuatri\IA\C3\3er intento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15012E-704B-4421-B673-547E45C82EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30011B6-A10C-4ACA-A6F1-977353F4475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E654DF0-82B9-44A9-AB9F-44D571760C94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="26">
   <si>
     <t>id_origen</t>
   </si>
@@ -98,11 +98,21 @@
   <si>
     <t>Plaza de armas</t>
   </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +454,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FEA6BA-FD05-4D98-A0BD-C2D0842DB61E}">
-  <dimension ref="A1:K279"/>
+  <dimension ref="A1:M279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:C145"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,9 +796,11 @@
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,8 +831,14 @@
       <c r="K1" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -846,8 +869,14 @@
       <c r="K2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="112">
+        <v>16.755340110690501</v>
+      </c>
+      <c r="M2" s="112">
+        <v>-93.123383662257197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -878,8 +907,14 @@
       <c r="K3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="112">
+        <v>16.759631654588301</v>
+      </c>
+      <c r="M3" s="112">
+        <v>-93.107344888643695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -910,8 +945,14 @@
       <c r="K4">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="112">
+        <v>16.7582447802133</v>
+      </c>
+      <c r="M4" s="112">
+        <v>-93.107141040750605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -942,8 +983,14 @@
       <c r="K5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="112">
+        <v>16.795753641688101</v>
+      </c>
+      <c r="M5" s="112">
+        <v>-93.095502502732202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -974,8 +1021,14 @@
       <c r="K6">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="112">
+        <v>16.725226182776701</v>
+      </c>
+      <c r="M6" s="112">
+        <v>-93.093604955900901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1006,8 +1059,14 @@
       <c r="K7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="112">
+        <v>16.713640012237398</v>
+      </c>
+      <c r="M7" s="112">
+        <v>-93.014333253938204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1038,8 +1097,14 @@
       <c r="K8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="112">
+        <v>16.708326901736399</v>
+      </c>
+      <c r="M8" s="112">
+        <v>-93.016890130980102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1070,8 +1135,14 @@
       <c r="K9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="112">
+        <v>16.706863715738901</v>
+      </c>
+      <c r="M9" s="112">
+        <v>-93.018178302734398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1102,8 +1173,14 @@
       <c r="K10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="111">
+        <v>16.708236459944999</v>
+      </c>
+      <c r="M10" s="112">
+        <v>-93.016815302734301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1134,8 +1211,14 @@
       <c r="K11">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="111">
+        <v>16.740051684546</v>
+      </c>
+      <c r="M11" s="112">
+        <v>-93.031100771450895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1158,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1181,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1204,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1227,7 +1310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
